--- a/Team-Data/2011-12/2-9-2011-12.xlsx
+++ b/Team-Data/2011-12/2-9-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>4.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -768,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>18</v>
@@ -786,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
         <v>10</v>
@@ -804,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -813,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="H3" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J3" t="n">
-        <v>75.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="L3" t="n">
         <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.403</v>
+        <v>0.407</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T3" t="n">
-        <v>39.1</v>
+        <v>38.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
         <v>5.3</v>
@@ -917,37 +984,37 @@
         <v>20.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG3" t="n">
         <v>10</v>
       </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
         <v>16</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -980,22 +1047,22 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>28</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1141,13 +1208,13 @@
         <v>24</v>
       </c>
       <c r="AO4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP4" t="n">
         <v>27</v>
       </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
@@ -1168,10 +1235,10 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -1296,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1338,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1484,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1496,7 +1563,7 @@
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
@@ -1505,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1517,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT6" t="n">
         <v>14</v>
@@ -1535,19 +1602,19 @@
         <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -1654,31 +1721,31 @@
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
@@ -1693,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
@@ -1705,16 +1772,16 @@
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -1758,100 +1825,100 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.556</v>
+        <v>0.577</v>
       </c>
       <c r="H8" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
         <v>37.9</v>
       </c>
       <c r="J8" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L8" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P8" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.745</v>
+        <v>0.748</v>
       </c>
       <c r="R8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
         <v>23.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1860,13 +1927,13 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>15</v>
@@ -1893,16 +1960,16 @@
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>27</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>20</v>
@@ -2057,7 +2124,7 @@
         <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.391</v>
+        <v>0.364</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J10" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M10" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.389</v>
+        <v>0.382</v>
       </c>
       <c r="O10" t="n">
         <v>15.1</v>
@@ -2161,46 +2228,46 @@
         <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.735</v>
+        <v>0.74</v>
       </c>
       <c r="R10" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="T10" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U10" t="n">
         <v>23.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Z10" t="n">
         <v>23.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2215,37 +2282,37 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM10" t="n">
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
         <v>27</v>
@@ -2254,13 +2321,13 @@
         <v>2</v>
       </c>
       <c r="AV10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.593</v>
+        <v>0.577</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J11" t="n">
         <v>85</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="O11" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="P11" t="n">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
@@ -2355,55 +2422,55 @@
         <v>43.8</v>
       </c>
       <c r="U11" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,13 +2479,13 @@
         <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP11" t="n">
         <v>28</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>30</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2427,28 +2494,28 @@
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>29</v>
@@ -2457,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,13 +2643,13 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2624,10 +2691,10 @@
         <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>4</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
@@ -2767,10 +2834,10 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM13" t="n">
         <v>4</v>
@@ -2791,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="n">
         <v>25</v>
@@ -2803,10 +2870,10 @@
         <v>6</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -2850,61 +2917,61 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.577</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
         <v>35.6</v>
       </c>
       <c r="J14" t="n">
-        <v>78.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M14" t="n">
         <v>16.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.286</v>
+        <v>0.294</v>
       </c>
       <c r="O14" t="n">
         <v>17.2</v>
       </c>
       <c r="P14" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="T14" t="n">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
         <v>5.6</v>
@@ -2913,43 +2980,43 @@
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AA14" t="n">
         <v>20</v>
       </c>
       <c r="AB14" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="AC14" t="n">
         <v>2.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,10 +3025,10 @@
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
@@ -2970,16 +3037,16 @@
         <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
@@ -2988,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>0.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3122,7 +3189,7 @@
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3179,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3322,7 +3389,7 @@
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3331,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>28</v>
@@ -3358,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3486,7 +3553,7 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3504,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>18</v>
@@ -3516,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
@@ -3534,16 +3601,16 @@
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3686,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3710,7 +3777,7 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>25</v>
@@ -3850,7 +3917,7 @@
         <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3892,10 +3959,10 @@
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4050,13 +4117,13 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>18</v>
@@ -4068,7 +4135,7 @@
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4080,13 +4147,13 @@
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
         <v>20</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>0.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -4226,7 +4293,7 @@
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4265,7 +4332,7 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.769</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,55 +4391,55 @@
         <v>36.5</v>
       </c>
       <c r="J22" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M22" t="n">
         <v>18.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R22" t="n">
         <v>10.2</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="V22" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA22" t="n">
         <v>20.6</v>
@@ -4381,10 +4448,10 @@
         <v>101.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4459,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
@@ -4596,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
@@ -4611,7 +4678,7 @@
         <v>17</v>
       </c>
       <c r="AS23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4763,13 +4830,13 @@
         <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK24" t="n">
         <v>5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>6</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4796,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -4852,112 +4919,112 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.423</v>
+        <v>0.44</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J25" t="n">
-        <v>80.90000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L25" t="n">
         <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O25" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="P25" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.77</v>
+        <v>0.775</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T25" t="n">
-        <v>41.1</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V25" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>14</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN25" t="n">
         <v>14</v>
@@ -4966,46 +5033,46 @@
         <v>29</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>9</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>5.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
         <v>16</v>
@@ -5130,16 +5197,16 @@
         <v>8</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
         <v>22</v>
@@ -5175,10 +5242,10 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -5216,88 +5283,88 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.385</v>
+        <v>0.36</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="J27" t="n">
-        <v>83.8</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.406</v>
       </c>
       <c r="L27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3</v>
+        <v>0.298</v>
       </c>
       <c r="O27" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P27" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.734</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S27" t="n">
         <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
         <v>19.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>92.3</v>
+        <v>91.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5339,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5351,19 +5418,19 @@
         <v>25</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5555,7 @@
         <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
@@ -5497,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5506,13 +5573,13 @@
         <v>12</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
@@ -5670,13 +5737,13 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
         <v>30</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
         <v>29</v>
@@ -5712,13 +5779,13 @@
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
@@ -5858,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5879,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,13 +6101,13 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
         <v>27</v>
@@ -6070,7 +6137,7 @@
         <v>27</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6085,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-9-2011-12</t>
+          <t>2012-02-09</t>
         </is>
       </c>
     </row>
